--- a/Respuestas_encuesta_Ovni.xlsx
+++ b/Respuestas_encuesta_Ovni.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -35,31 +35,52 @@
     <t>Pregunta 5: ¿Puntúa del 1 al 10 este proyecto?</t>
   </si>
   <si>
-    <t>Iraitz Garmendia</t>
+    <t>Andrés</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>Cono</t>
-  </si>
-  <si>
-    <t>Si, ayer a la noche cuando estaba tomando una cerveza.</t>
-  </si>
-  <si>
-    <t>Jaime</t>
-  </si>
-  <si>
-    <t>No sé qué es un OVNI</t>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Claro, muchas noches hay cosas que no puedo identificar.</t>
+  </si>
+  <si>
+    <t>Bola de fuego</t>
+  </si>
+  <si>
+    <t>Creo que una bola de fuego! Hace una semanas, fue espectacular y lo vimos tres personas!!</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>Creo que no. Tengo miopía. Pero no veo descabellado que existan, quién sabe.</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Joseba</t>
+  </si>
+  <si>
+    <t>Disco</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>Demetrio</t>
   </si>
   <si>
     <t>Triangular</t>
   </si>
   <si>
-    <t>No existe ese lugar</t>
-  </si>
-  <si>
-    <t>Prueba</t>
+    <t>malditos reptilianos</t>
   </si>
 </sst>
 </file>
@@ -354,7 +375,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45258.77901627315</v>
+        <v>45259.469333078705</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -366,36 +387,125 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45258.78065885417</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>45259.46982837963</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>45259.470442060185</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3">
-        <v>8.0</v>
+      <c r="G4" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>45259.471711342594</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>45259.474923182876</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>45259.484308125</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
